--- a/data/sundell2022/20sinks from 3Sources from Sundell et al 2022.xlsx
+++ b/data/sundell2022/20sinks from 3Sources from Sundell et al 2022.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Joel\DZmultinmf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicholas\OneDrive - UBC\Research\Sediment Source Analysis\data\sundell2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55355911-0128-4874-A545-BD95B663BDBC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481111CF-55C5-40C1-A631-C8EADC5EDD62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23003" windowHeight="8115" activeTab="7" xr2:uid="{A3CC7FA2-FAB0-4D7A-8CA6-80B7FA485E5E}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="21888" windowHeight="11808" xr2:uid="{A3CC7FA2-FAB0-4D7A-8CA6-80B7FA485E5E}"/>
   </bookViews>
   <sheets>
-    <sheet name="ages" sheetId="1" r:id="rId1"/>
+    <sheet name="Age" sheetId="1" r:id="rId1"/>
     <sheet name="Eu_anomaly" sheetId="2" r:id="rId2"/>
     <sheet name="Ti_temp" sheetId="3" r:id="rId3"/>
     <sheet name="Th_U" sheetId="4" r:id="rId4"/>
@@ -459,13 +459,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA9540B3-85DF-44FC-BFE8-6C0FC4CC9D05}">
   <dimension ref="A1:T75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:T75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>116.74</v>
       </c>
@@ -527,7 +527,7 @@
         <v>143.82</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>138.1</v>
       </c>
@@ -589,7 +589,7 @@
         <v>24.34</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>16.3</v>
       </c>
@@ -651,7 +651,7 @@
         <v>16.29</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>111.24</v>
       </c>
@@ -713,7 +713,7 @@
         <v>23.99</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>109.23</v>
       </c>
@@ -775,7 +775,7 @@
         <v>28.87</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>7.8</v>
       </c>
@@ -837,7 +837,7 @@
         <v>96.69</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>23.99</v>
       </c>
@@ -899,7 +899,7 @@
         <v>111.24</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>33.369999999999997</v>
       </c>
@@ -961,7 +961,7 @@
         <v>38.43</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>59.37</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>23.99</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>89.01</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>89.01</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>30.98</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>74.23</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>16.29</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>53.48</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11.85</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>16.29</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>94.31</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>138.1</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>9.9</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>83.4</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>104.05</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>73.75</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>38.1</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>16.809999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>24.81</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>53.48</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0.28000000000000003</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>71.33</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>24.34</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>0.23</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v>79.099999999999994</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>82.23</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>9.2100000000000009</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>40.98</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>66.03</v>
       </c>
@@ -2077,7 +2077,7 @@
         <v>13.13</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>9.9</v>
       </c>
@@ -2139,7 +2139,7 @@
         <v>55.15</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>16.399999999999999</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>139</v>
       </c>
@@ -2263,7 +2263,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>71.33</v>
       </c>
@@ -2325,7 +2325,7 @@
         <v>60.46</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>12.82</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>11.92</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>185.04</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>63.59</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>11.92</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>9.2100000000000009</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>86.51</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>7.77</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>12.82</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>121.27</v>
       </c>
@@ -2697,7 +2697,7 @@
         <v>21.62</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>71.12</v>
       </c>
@@ -2759,7 +2759,7 @@
         <v>22.81</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>64.7</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>22.34</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>23.99</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>54.52</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>9.06</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>62.66</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>22</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40.71</v>
       </c>
@@ -3069,7 +3069,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>108.7</v>
       </c>
@@ -3131,7 +3131,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>97.19</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>20.88</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>25</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>13.55</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>137.16</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>18.88</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>60.46</v>
       </c>
@@ -3379,7 +3379,7 @@
         <v>18.149999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>7.8</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>169.35</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>13.13</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>185.04</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>54.52</v>
       </c>
@@ -3565,7 +3565,7 @@
         <v>41.44</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>63.59</v>
       </c>
@@ -3627,7 +3627,7 @@
         <v>67.290000000000006</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>25.72</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>110.57</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>11.43</v>
       </c>
@@ -3751,7 +3751,7 @@
         <v>7.53</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>65.28</v>
       </c>
@@ -3813,7 +3813,7 @@
         <v>12.82</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>169.35</v>
       </c>
@@ -3875,7 +3875,7 @@
         <v>8.3800000000000008</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>11.92</v>
       </c>
@@ -3937,7 +3937,7 @@
         <v>13.63</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>4.72</v>
       </c>
@@ -3999,7 +3999,7 @@
         <v>64.7</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>67.290000000000006</v>
       </c>
@@ -4061,7 +4061,7 @@
         <v>18.59</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>18.28</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>40.340000000000003</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>132.08000000000001</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>40.47</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>41.44</v>
       </c>
@@ -4247,7 +4247,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>2.87</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>4.71</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>138.78</v>
       </c>
@@ -4371,7 +4371,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62.85</v>
       </c>
@@ -4433,7 +4433,7 @@
         <v>70.38</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>21.62</v>
       </c>
@@ -4495,7 +4495,7 @@
         <v>18.489999999999998</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65.58</v>
       </c>
@@ -4557,7 +4557,7 @@
         <v>22.22</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>9</v>
       </c>
@@ -4619,7 +4619,7 @@
         <v>9.5399999999999991</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>12.5</v>
       </c>
@@ -4681,7 +4681,7 @@
         <v>54.29</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>20.76</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>2.3199999999999998</v>
       </c>
@@ -4805,7 +4805,7 @@
         <v>16.46</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>21.8</v>
       </c>
@@ -4867,7 +4867,7 @@
         <v>4.84</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>12.82</v>
       </c>
@@ -4929,7 +4929,7 @@
         <v>9.5399999999999991</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>9.8699999999999992</v>
       </c>
@@ -4991,7 +4991,7 @@
         <v>9.8699999999999992</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>13.8</v>
       </c>
@@ -5053,7 +5053,7 @@
         <v>20.29</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>25</v>
       </c>
@@ -5128,9 +5128,9 @@
       <selection sqref="A1:T75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>0.24275100399999999</v>
       </c>
@@ -5192,7 +5192,7 @@
         <v>0.28718511299999999</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.29808964399999999</v>
       </c>
@@ -5254,7 +5254,7 @@
         <v>5.0004829000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>9.0003700000000006E-3</v>
       </c>
@@ -5316,7 +5316,7 @@
         <v>2.2403987E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.31352967199999998</v>
       </c>
@@ -5378,7 +5378,7 @@
         <v>0.106282208</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.258802425</v>
       </c>
@@ -5440,7 +5440,7 @@
         <v>0.49828414799999998</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4.6154167000000003E-2</v>
       </c>
@@ -5502,7 +5502,7 @@
         <v>0.32471304499999998</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3.2936343E-2</v>
       </c>
@@ -5564,7 +5564,7 @@
         <v>0.31352967199999998</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.30213120799999998</v>
       </c>
@@ -5626,7 +5626,7 @@
         <v>0.31887638800000001</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3.6157148E-2</v>
       </c>
@@ -5688,7 +5688,7 @@
         <v>3.2936343E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.13586358000000001</v>
       </c>
@@ -5750,7 +5750,7 @@
         <v>0.13586358000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0.51260147599999994</v>
       </c>
@@ -5812,7 +5812,7 @@
         <v>0.48763044</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3.3628035000000001E-2</v>
       </c>
@@ -5874,7 +5874,7 @@
         <v>0.122233825</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0.45121961500000002</v>
       </c>
@@ -5936,7 +5936,7 @@
         <v>3.3628035000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0.47178156900000001</v>
       </c>
@@ -5998,7 +5998,7 @@
         <v>0.29808964399999999</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0.165135278</v>
       </c>
@@ -6060,7 +6060,7 @@
         <v>0.165135278</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0.43208932700000002</v>
       </c>
@@ -6122,7 +6122,7 @@
         <v>0.43679710199999999</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0.444986626</v>
       </c>
@@ -6184,7 +6184,7 @@
         <v>0.47471100500000002</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0.44454486500000001</v>
       </c>
@@ -6246,7 +6246,7 @@
         <v>1.1604714E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>4.6537167999999997E-2</v>
       </c>
@@ -6308,7 +6308,7 @@
         <v>2.2560404999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>0.122233825</v>
       </c>
@@ -6370,7 +6370,7 @@
         <v>0.20222240499999999</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0.44027617299999999</v>
       </c>
@@ -6432,7 +6432,7 @@
         <v>0.18463825</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>3.7177573999999998E-2</v>
       </c>
@@ -6494,7 +6494,7 @@
         <v>6.9641210999999995E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>0.47471100500000002</v>
       </c>
@@ -6556,7 +6556,7 @@
         <v>0.17207486499999999</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0.479754138</v>
       </c>
@@ -6618,7 +6618,7 @@
         <v>0.17083390900000001</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>0.104598578</v>
       </c>
@@ -6680,7 +6680,7 @@
         <v>0.21285541999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>3.4369428E-2</v>
       </c>
@@ -6742,7 +6742,7 @@
         <v>0.21450923499999999</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>0.205775453</v>
       </c>
@@ -6804,7 +6804,7 @@
         <v>8.2512800999999997E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>0.17397798</v>
       </c>
@@ -6866,7 +6866,7 @@
         <v>0.205775453</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>0.19950751899999999</v>
       </c>
@@ -6928,7 +6928,7 @@
         <v>0.20207897999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>0.18463825</v>
       </c>
@@ -6990,7 +6990,7 @@
         <v>0.18396447299999999</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>0.19837137499999999</v>
       </c>
@@ -7052,7 +7052,7 @@
         <v>0.19189742300000001</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>8.2545827000000002E-2</v>
       </c>
@@ -7114,7 +7114,7 @@
         <v>8.1917445000000005E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>8.1420739000000006E-2</v>
       </c>
@@ -7176,7 +7176,7 @@
         <v>0.193694475</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>0.18647925000000001</v>
       </c>
@@ -7238,7 +7238,7 @@
         <v>2.9018558999999999E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>0.138259035</v>
       </c>
@@ -7300,7 +7300,7 @@
         <v>0.212068543</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>0.200446876</v>
       </c>
@@ -7362,7 +7362,7 @@
         <v>0.21897367200000001</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>0.20297802300000001</v>
       </c>
@@ -7424,7 +7424,7 @@
         <v>0.18458493200000001</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>7.0685029999999996E-2</v>
       </c>
@@ -7486,7 +7486,7 @@
         <v>0.202093567</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>7.8799811999999997E-2</v>
       </c>
@@ -7548,7 +7548,7 @@
         <v>0.11591836899999999</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>0.19079227800000001</v>
       </c>
@@ -7610,7 +7610,7 @@
         <v>6.4756611000000006E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>0.20222240499999999</v>
       </c>
@@ -7672,7 +7672,7 @@
         <v>0.17397798</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>0.108039999</v>
       </c>
@@ -7734,7 +7734,7 @@
         <v>0.10355505499999999</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>0.15746935100000001</v>
       </c>
@@ -7796,7 +7796,7 @@
         <v>3.0929752000000001E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>5.6676171999999997E-2</v>
       </c>
@@ -7858,7 +7858,7 @@
         <v>0.20003222300000001</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>6.9641210999999995E-2</v>
       </c>
@@ -7920,7 +7920,7 @@
         <v>0.14531061100000001</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>0.13934886199999999</v>
       </c>
@@ -7982,7 +7982,7 @@
         <v>0.191131776</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>0.18396447299999999</v>
       </c>
@@ -8044,7 +8044,7 @@
         <v>0.20970514400000001</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>4.5925926999999998E-2</v>
       </c>
@@ -8106,7 +8106,7 @@
         <v>0.204203104</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>0.21450923499999999</v>
       </c>
@@ -8168,7 +8168,7 @@
         <v>8.2545827000000002E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>0.11591836899999999</v>
       </c>
@@ -8230,7 +8230,7 @@
         <v>0.12593204699999999</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>8.1917445000000005E-2</v>
       </c>
@@ -8292,7 +8292,7 @@
         <v>4.3995305999999998E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>0.20400189499999999</v>
       </c>
@@ -8354,7 +8354,7 @@
         <v>0.12587879599999999</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1.2319299000000001E-2</v>
       </c>
@@ -8416,7 +8416,7 @@
         <v>9.4019773000000001E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>8.0793469000000007E-2</v>
       </c>
@@ -8478,7 +8478,7 @@
         <v>0.19837137499999999</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>0.204203104</v>
       </c>
@@ -8540,7 +8540,7 @@
         <v>0.17642784</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>0.19189742300000001</v>
       </c>
@@ -8602,7 +8602,7 @@
         <v>0.212029776</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>0.17382235500000001</v>
       </c>
@@ -8664,7 +8664,7 @@
         <v>7.0685029999999996E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>4.3995305999999998E-2</v>
       </c>
@@ -8726,7 +8726,7 @@
         <v>0.198449555</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>0.16063058899999999</v>
       </c>
@@ -8788,7 +8788,7 @@
         <v>0.118902672</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>0.174047901</v>
       </c>
@@ -8850,7 +8850,7 @@
         <v>0.144353227</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>0.12593204699999999</v>
       </c>
@@ -8912,7 +8912,7 @@
         <v>0.39979736900000001</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>0.108234293</v>
       </c>
@@ -8974,7 +8974,7 @@
         <v>0.52806823000000003</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>0.17886610999999999</v>
       </c>
@@ -9036,7 +9036,7 @@
         <v>0.37125254600000002</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>0.13829211</v>
       </c>
@@ -9098,7 +9098,7 @@
         <v>0.35048589299999999</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>0.21897367200000001</v>
       </c>
@@ -9160,7 +9160,7 @@
         <v>0.30022465999999998</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>8.8292362999999999E-2</v>
       </c>
@@ -9222,7 +9222,7 @@
         <v>0.32235116699999999</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>0.191757333</v>
       </c>
@@ -9284,7 +9284,7 @@
         <v>0.39676325099999998</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>0.31830490299999997</v>
       </c>
@@ -9346,7 +9346,7 @@
         <v>0.22057513200000001</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>0.49203383099999998</v>
       </c>
@@ -9408,7 +9408,7 @@
         <v>0.47956199199999999</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>0.47452537700000003</v>
       </c>
@@ -9470,7 +9470,7 @@
         <v>0.37474349200000001</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>0.35535524499999999</v>
       </c>
@@ -9532,7 +9532,7 @@
         <v>0.44632111299999999</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>0.23548319100000001</v>
       </c>
@@ -9594,7 +9594,7 @@
         <v>0.33255512399999998</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>0.29521357999999998</v>
       </c>
@@ -9656,7 +9656,7 @@
         <v>0.45391052700000001</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>0.48202641299999999</v>
       </c>
@@ -9718,7 +9718,7 @@
         <v>0.50654670599999996</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>0.409101404</v>
       </c>
@@ -9793,9 +9793,9 @@
       <selection sqref="A1:T75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>617.85145680000005</v>
       </c>
@@ -9857,7 +9857,7 @@
         <v>668.25962179999999</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>621.56400819999999</v>
       </c>
@@ -9919,7 +9919,7 @@
         <v>636.4177803</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>646.45292819999997</v>
       </c>
@@ -9981,7 +9981,7 @@
         <v>728.19083120000005</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>672.87985360000005</v>
       </c>
@@ -10043,7 +10043,7 @@
         <v>717.91459780000002</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>669.44328959999996</v>
       </c>
@@ -10105,7 +10105,7 @@
         <v>654.43607840000004</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>756.74405960000001</v>
       </c>
@@ -10167,7 +10167,7 @@
         <v>706.00135720000003</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>658.47711690000006</v>
       </c>
@@ -10229,7 +10229,7 @@
         <v>672.87985360000005</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>911.69673899999998</v>
       </c>
@@ -10291,7 +10291,7 @@
         <v>700.06858420000003</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>599.99248799999998</v>
       </c>
@@ -10353,7 +10353,7 @@
         <v>658.47711690000006</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>645.32599240000002</v>
       </c>
@@ -10415,7 +10415,7 @@
         <v>645.32599240000002</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>614.02681949999999</v>
       </c>
@@ -10477,7 +10477,7 @@
         <v>688.62003679999998</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>690.53062450000004</v>
       </c>
@@ -10539,7 +10539,7 @@
         <v>728.32804980000003</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>633.40290789999995</v>
       </c>
@@ -10601,7 +10601,7 @@
         <v>690.53062450000004</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>639.96649849999994</v>
       </c>
@@ -10663,7 +10663,7 @@
         <v>621.56400819999999</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>702.5689744</v>
       </c>
@@ -10725,7 +10725,7 @@
         <v>702.5689744</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>645.54910440000003</v>
       </c>
@@ -10787,7 +10787,7 @@
         <v>629.26276050000001</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>659.22100880000005</v>
       </c>
@@ -10849,7 +10849,7 @@
         <v>642.03070339999999</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>621.52840389999994</v>
       </c>
@@ -10911,7 +10911,7 @@
         <v>671.4317413</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>771.13006770000004</v>
       </c>
@@ -10973,7 +10973,7 @@
         <v>774.91133920000004</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>728.32804980000003</v>
       </c>
@@ -11035,7 +11035,7 @@
         <v>689.98781940000003</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>685.22892850000005</v>
       </c>
@@ -11097,7 +11097,7 @@
         <v>658.36670279999998</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>608.83656110000004</v>
       </c>
@@ -11159,7 +11159,7 @@
         <v>772.93977719999998</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>642.03070339999999</v>
       </c>
@@ -11221,7 +11221,7 @@
         <v>785.65969280000002</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>667.0807605</v>
       </c>
@@ -11283,7 +11283,7 @@
         <v>633.72229689999995</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>677.09913540000002</v>
       </c>
@@ -11345,7 +11345,7 @@
         <v>660.57461899999998</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>735.60820960000001</v>
       </c>
@@ -11407,7 +11407,7 @@
         <v>769.6219883</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>744.84399499999995</v>
       </c>
@@ -11469,7 +11469,7 @@
         <v>702.42289249999999</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>632.52864650000004</v>
       </c>
@@ -11531,7 +11531,7 @@
         <v>744.84399499999995</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>705.27177340000003</v>
       </c>
@@ -11593,7 +11593,7 @@
         <v>694.49238000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>658.36670279999998</v>
       </c>
@@ -11655,7 +11655,7 @@
         <v>765.55829080000001</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>719.51695600000005</v>
       </c>
@@ -11717,7 +11717,7 @@
         <v>679.94713760000002</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>823.81496749999997</v>
       </c>
@@ -11779,7 +11779,7 @@
         <v>742.37025449999999</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>677.36858889999996</v>
       </c>
@@ -11841,7 +11841,7 @@
         <v>700.16870960000006</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>647.64161100000001</v>
       </c>
@@ -11903,7 +11903,7 @@
         <v>790.40204389999997</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>648.72709039999995</v>
       </c>
@@ -11965,7 +11965,7 @@
         <v>681.04097709999996</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>754.65306499999997</v>
       </c>
@@ -12027,7 +12027,7 @@
         <v>823.22840229999997</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>685.47326659999999</v>
       </c>
@@ -12089,7 +12089,7 @@
         <v>663.15930430000003</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>765.67613319999998</v>
       </c>
@@ -12151,7 +12151,7 @@
         <v>685.48524139999995</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>709.82534080000005</v>
       </c>
@@ -12213,7 +12213,7 @@
         <v>739.39784050000003</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>717.74010959999998</v>
       </c>
@@ -12275,7 +12275,7 @@
         <v>705.70075829999996</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>689.98781940000003</v>
       </c>
@@ -12337,7 +12337,7 @@
         <v>632.52864650000004</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>716.69677799999999</v>
       </c>
@@ -12399,7 +12399,7 @@
         <v>842.3494273</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>717.65623270000003</v>
       </c>
@@ -12461,7 +12461,7 @@
         <v>1222.5532720000001</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>730.38118239999994</v>
       </c>
@@ -12523,7 +12523,7 @@
         <v>1667.4505469999999</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>772.93977719999998</v>
       </c>
@@ -12585,7 +12585,7 @@
         <v>837.0493275</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>699.47019569999998</v>
       </c>
@@ -12647,7 +12647,7 @@
         <v>686.14894990000005</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>765.55829080000001</v>
       </c>
@@ -12709,7 +12709,7 @@
         <v>649.52681010000003</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>742.03471760000002</v>
       </c>
@@ -12771,7 +12771,7 @@
         <v>658.09797219999996</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>769.6219883</v>
       </c>
@@ -12833,7 +12833,7 @@
         <v>823.81496749999997</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>739.39784050000003</v>
       </c>
@@ -12895,7 +12895,7 @@
         <v>712.83878700000002</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>742.37025449999999</v>
       </c>
@@ -12957,7 +12957,7 @@
         <v>705.36684609999998</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>764.7497869</v>
       </c>
@@ -13019,7 +13019,7 @@
         <v>747.84583229999998</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>630.49079959999995</v>
       </c>
@@ -13081,7 +13081,7 @@
         <v>668.38776480000001</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>756.69742169999995</v>
       </c>
@@ -13143,7 +13143,7 @@
         <v>719.51695600000005</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>658.09797219999996</v>
       </c>
@@ -13205,7 +13205,7 @@
         <v>623.97306100000003</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>679.94713760000002</v>
       </c>
@@ -13267,7 +13267,7 @@
         <v>779.85052299999995</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>771.28962790000003</v>
       </c>
@@ -13329,7 +13329,7 @@
         <v>765.67613319999998</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>705.36684609999998</v>
       </c>
@@ -13391,7 +13391,7 @@
         <v>659.13864969999997</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>856.77603260000001</v>
       </c>
@@ -13453,7 +13453,7 @@
         <v>697.93789370000002</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>748.6871069</v>
       </c>
@@ -13515,7 +13515,7 @@
         <v>761.72114899999997</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>712.83878700000002</v>
       </c>
@@ -13577,7 +13577,7 @@
         <v>645.54132819999995</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>650.54306870000005</v>
       </c>
@@ -13639,7 +13639,7 @@
         <v>696.90695449999998</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>746.44405389999997</v>
       </c>
@@ -13701,7 +13701,7 @@
         <v>662.40450699999997</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>784.55161109999995</v>
       </c>
@@ -13763,7 +13763,7 @@
         <v>700.03782239999998</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>823.22840229999997</v>
       </c>
@@ -13825,7 +13825,7 @@
         <v>712.62078750000001</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>845.81574890000002</v>
       </c>
@@ -13887,7 +13887,7 @@
         <v>678.87723089999997</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>654.81483189999994</v>
       </c>
@@ -13949,7 +13949,7 @@
         <v>678.66595299999994</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>730.2968932</v>
       </c>
@@ -14011,7 +14011,7 @@
         <v>757.49272589999998</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>763.03794319999997</v>
       </c>
@@ -14073,7 +14073,7 @@
         <v>736.09290629999998</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>670.33363529999997</v>
       </c>
@@ -14135,7 +14135,7 @@
         <v>679.46901790000004</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>748.14655389999996</v>
       </c>
@@ -14197,7 +14197,7 @@
         <v>739.72642250000001</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>688.35263299999997</v>
       </c>
@@ -14259,7 +14259,7 @@
         <v>758.27798050000001</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>675.76159710000002</v>
       </c>
@@ -14321,7 +14321,7 @@
         <v>665.87998670000002</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>744.43482830000005</v>
       </c>
@@ -14383,7 +14383,7 @@
         <v>761.47744069999999</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>716.19504589999997</v>
       </c>
@@ -14458,9 +14458,9 @@
       <selection sqref="A1:T75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>-0.52688041299999999</v>
       </c>
@@ -14522,7 +14522,7 @@
         <v>-0.382029546</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>-0.47088952499999998</v>
       </c>
@@ -14584,7 +14584,7 @@
         <v>-1.123014508</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>-1.7424296340000001</v>
       </c>
@@ -14646,7 +14646,7 @@
         <v>-0.927814892</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>-0.38567289399999999</v>
       </c>
@@ -14708,7 +14708,7 @@
         <v>-0.450609378</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>-0.46552451</v>
       </c>
@@ -14770,7 +14770,7 @@
         <v>-0.472770513</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>-0.48498823000000002</v>
       </c>
@@ -14832,7 +14832,7 @@
         <v>-0.43682395299999999</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>-0.80560514999999999</v>
       </c>
@@ -14894,7 +14894,7 @@
         <v>-0.38567289399999999</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>-0.64662857900000004</v>
       </c>
@@ -14956,7 +14956,7 @@
         <v>-0.38550828399999998</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>-1.2683123300000001</v>
       </c>
@@ -15018,7 +15018,7 @@
         <v>-0.80560514999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>-0.39634905500000001</v>
       </c>
@@ -15080,7 +15080,7 @@
         <v>-0.39634905500000001</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>-0.57796033199999997</v>
       </c>
@@ -15142,7 +15142,7 @@
         <v>-0.80812492800000002</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>-0.55798872399999999</v>
       </c>
@@ -15204,7 +15204,7 @@
         <v>-0.68980684000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>-0.65753565000000003</v>
       </c>
@@ -15266,7 +15266,7 @@
         <v>-0.55798872399999999</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>-0.44549828800000002</v>
       </c>
@@ -15328,7 +15328,7 @@
         <v>-0.47088952499999998</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>-0.426789898</v>
       </c>
@@ -15390,7 +15390,7 @@
         <v>-0.426789898</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>-0.50942447999999996</v>
       </c>
@@ -15452,7 +15452,7 @@
         <v>-0.54537596899999996</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>-0.42126050700000001</v>
       </c>
@@ -15514,7 +15514,7 @@
         <v>-0.51153687400000003</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>-0.45725268099999999</v>
       </c>
@@ -15576,7 +15576,7 @@
         <v>-0.79022758400000004</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>-0.46897665599999999</v>
       </c>
@@ -15638,7 +15638,7 @@
         <v>-0.86011781899999995</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>-0.68980684000000003</v>
       </c>
@@ -15700,7 +15700,7 @@
         <v>-0.139448395</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>-0.39607869600000001</v>
       </c>
@@ -15762,7 +15762,7 @@
         <v>-0.22679141999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>-1.8377536649999999</v>
       </c>
@@ -15824,7 +15824,7 @@
         <v>1.9890997000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>-0.51153687400000003</v>
       </c>
@@ -15886,7 +15886,7 @@
         <v>-2.0819541E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>-0.50802363500000003</v>
       </c>
@@ -15948,7 +15948,7 @@
         <v>-9.5002545999999993E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>-0.41578239299999997</v>
       </c>
@@ -16010,7 +16010,7 @@
         <v>-0.13280476699999999</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>-0.59846049199999996</v>
       </c>
@@ -16072,7 +16072,7 @@
         <v>-1.7636886000000001E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>-0.19505043599999999</v>
       </c>
@@ -16134,7 +16134,7 @@
         <v>5.6268205000000002E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>-0.21680026499999999</v>
       </c>
@@ -16196,7 +16196,7 @@
         <v>-0.19505043599999999</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>-6.0559016E-2</v>
       </c>
@@ -16258,7 +16258,7 @@
         <v>0.160186526</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>-0.22679141999999999</v>
       </c>
@@ -16320,7 +16320,7 @@
         <v>-0.151593008</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>0.41957247600000003</v>
       </c>
@@ -16382,7 +16382,7 @@
         <v>0.109712606</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>0.22458329499999999</v>
       </c>
@@ -16444,7 +16444,7 @@
         <v>-9.3386433000000005E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>-0.20464533300000001</v>
       </c>
@@ -16506,7 +16506,7 @@
         <v>3.6239254999999998E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>-3.6776727000000002E-2</v>
       </c>
@@ -16568,7 +16568,7 @@
         <v>7.6709562999999995E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>-8.1418202999999995E-2</v>
       </c>
@@ -16630,7 +16630,7 @@
         <v>0.138000857</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>-0.27478234899999998</v>
       </c>
@@ -16692,7 +16692,7 @@
         <v>4.6601869999999997E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>-0.294476242</v>
       </c>
@@ -16754,7 +16754,7 @@
         <v>-0.10700649700000001</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>5.6877209999999997E-2</v>
       </c>
@@ -16816,7 +16816,7 @@
         <v>0.26577824999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>-0.105637471</v>
       </c>
@@ -16878,7 +16878,7 @@
         <v>0.110124504</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>0.50985476799999996</v>
       </c>
@@ -16940,7 +16940,7 @@
         <v>-0.11314629399999999</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>-0.139448395</v>
       </c>
@@ -17002,7 +17002,7 @@
         <v>-0.21680026499999999</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>-0.26461554100000001</v>
       </c>
@@ -17064,7 +17064,7 @@
         <v>4.0847586999999998E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>-0.26074351400000001</v>
       </c>
@@ -17126,7 +17126,7 @@
         <v>0.10668424</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>-0.107299336</v>
       </c>
@@ -17188,7 +17188,7 @@
         <v>-6.4278471000000004E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1.9890997000000001E-2</v>
       </c>
@@ -17250,7 +17250,7 @@
         <v>3.1704824E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>-0.31244255799999998</v>
       </c>
@@ -17312,7 +17312,7 @@
         <v>6.9557116000000002E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>-0.151593008</v>
       </c>
@@ -17374,7 +17374,7 @@
         <v>-6.3370052999999996E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>-0.32174385500000002</v>
       </c>
@@ -17436,7 +17436,7 @@
         <v>-0.271593433</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>-1.7636886000000001E-2</v>
       </c>
@@ -17498,7 +17498,7 @@
         <v>0.22458329499999999</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>0.110124504</v>
       </c>
@@ -17560,7 +17560,7 @@
         <v>-0.326591403</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>-9.3386433000000005E-2</v>
       </c>
@@ -17622,7 +17622,7 @@
         <v>-8.7729889000000005E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>8.8427780000000008E-3</v>
       </c>
@@ -17684,7 +17684,7 @@
         <v>-0.26115031500000002</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>-0.29507842299999998</v>
       </c>
@@ -17746,7 +17746,7 @@
         <v>0.20008989099999999</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>0.190822299</v>
       </c>
@@ -17808,7 +17808,7 @@
         <v>0.41957247600000003</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>-0.271593433</v>
       </c>
@@ -17870,7 +17870,7 @@
         <v>-0.17463763600000001</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>0.109712606</v>
       </c>
@@ -17932,7 +17932,7 @@
         <v>-3.3280377999999999E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>-0.29153074899999998</v>
       </c>
@@ -17994,7 +17994,7 @@
         <v>5.6877209999999997E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>-8.7729889000000005E-2</v>
       </c>
@@ -18056,7 +18056,7 @@
         <v>-0.15078091399999999</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>-6.2765185000000001E-2</v>
       </c>
@@ -18118,7 +18118,7 @@
         <v>-0.117843434</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>-3.4702809000000001E-2</v>
       </c>
@@ -18180,7 +18180,7 @@
         <v>-0.15489625900000001</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>-0.326591403</v>
       </c>
@@ -18242,7 +18242,7 @@
         <v>2.269995E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>-0.21481482299999999</v>
       </c>
@@ -18304,7 +18304,7 @@
         <v>-0.24415856699999999</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>-0.22073183800000001</v>
       </c>
@@ -18366,7 +18366,7 @@
         <v>-4.2427960000000001E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>4.8761573000000002E-2</v>
       </c>
@@ -18428,7 +18428,7 @@
         <v>-5.0131050000000003E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>4.6601869999999997E-2</v>
       </c>
@@ -18490,7 +18490,7 @@
         <v>-1.3044645000000001E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>6.2507684999999993E-2</v>
       </c>
@@ -18552,7 +18552,7 @@
         <v>0.160808017</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>-0.32934780299999999</v>
       </c>
@@ -18614,7 +18614,7 @@
         <v>-0.196651144</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>-5.4359159999999998E-3</v>
       </c>
@@ -18676,7 +18676,7 @@
         <v>-8.9046079999999996E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>0.173586195</v>
       </c>
@@ -18738,7 +18738,7 @@
         <v>0.21396457899999999</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>-0.17993652399999999</v>
       </c>
@@ -18800,7 +18800,7 @@
         <v>-0.13750774499999999</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>0.31059510299999998</v>
       </c>
@@ -18862,7 +18862,7 @@
         <v>0.109744732</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>0.15081128699999999</v>
       </c>
@@ -18924,7 +18924,7 @@
         <v>-0.18467123899999999</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>0.13851514500000001</v>
       </c>
@@ -18986,7 +18986,7 @@
         <v>0.36268012799999999</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>0.17760958499999999</v>
       </c>
@@ -19048,7 +19048,7 @@
         <v>0.28693196799999998</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>0.18559911500000001</v>
       </c>
@@ -19123,9 +19123,9 @@
       <selection sqref="A1:T75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1.6195728E-2</v>
       </c>
@@ -19187,7 +19187,7 @@
         <v>1.5631525E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2.1334916999999998E-2</v>
       </c>
@@ -19249,7 +19249,7 @@
         <v>8.475135E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2.0534910000000002E-3</v>
       </c>
@@ -19311,7 +19311,7 @@
         <v>1.0756686999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2.7301902999999999E-2</v>
       </c>
@@ -19373,7 +19373,7 @@
         <v>4.5175762000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1.428103E-2</v>
       </c>
@@ -19435,7 +19435,7 @@
         <v>5.2716130999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1.5795567E-2</v>
       </c>
@@ -19497,7 +19497,7 @@
         <v>2.2583203999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>8.4765650000000001E-3</v>
       </c>
@@ -19559,7 +19559,7 @@
         <v>2.7301902999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1.1951405E-2</v>
       </c>
@@ -19621,7 +19621,7 @@
         <v>4.9736572E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1.7626955E-2</v>
       </c>
@@ -19683,7 +19683,7 @@
         <v>8.4765650000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2.4488792999999998E-2</v>
       </c>
@@ -19745,7 +19745,7 @@
         <v>2.4488792999999998E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3.7494197999999999E-2</v>
       </c>
@@ -19807,7 +19807,7 @@
         <v>1.0037661999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>7.3097020000000004E-3</v>
       </c>
@@ -19869,7 +19869,7 @@
         <v>3.5954374999999997E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1.8706745E-2</v>
       </c>
@@ -19931,7 +19931,7 @@
         <v>7.3097020000000004E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2.6946044999999998E-2</v>
       </c>
@@ -19993,7 +19993,7 @@
         <v>2.1334916999999998E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2.1660564E-2</v>
       </c>
@@ -20055,7 +20055,7 @@
         <v>2.1660564E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3.4528404999999998E-2</v>
       </c>
@@ -20117,7 +20117,7 @@
         <v>4.5136899000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2.5864517E-2</v>
       </c>
@@ -20179,7 +20179,7 @@
         <v>7.4232993999999997E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2.7802721999999998E-2</v>
       </c>
@@ -20241,7 +20241,7 @@
         <v>6.4923680000000001E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1.8361604E-2</v>
       </c>
@@ -20303,7 +20303,7 @@
         <v>4.3361989999999998E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3.5954374999999997E-2</v>
       </c>
@@ -20365,7 +20365,7 @@
         <v>4.9708338999999997E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>8.7802285999999993E-2</v>
       </c>
@@ -20427,7 +20427,7 @@
         <v>2.4151625999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1.280645E-3</v>
       </c>
@@ -20489,7 +20489,7 @@
         <v>2.6492695E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>7.4232993999999997E-2</v>
       </c>
@@ -20551,7 +20551,7 @@
         <v>2.9187833999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1.264785E-2</v>
       </c>
@@ -20613,7 +20613,7 @@
         <v>3.9974580000000003E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1.4962677000000001E-2</v>
       </c>
@@ -20675,7 +20675,7 @@
         <v>3.3849981000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>3.8689631000000002E-2</v>
       </c>
@@ -20737,7 +20737,7 @@
         <v>6.0161913999999997E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>4.2022522999999999E-2</v>
       </c>
@@ -20799,7 +20799,7 @@
         <v>4.1784213000000001E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>5.9111166999999999E-2</v>
       </c>
@@ -20861,7 +20861,7 @@
         <v>4.2022522999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2.6820114999999999E-2</v>
       </c>
@@ -20923,7 +20923,7 @@
         <v>0.109513947</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2.4151625999999999E-2</v>
       </c>
@@ -20985,7 +20985,7 @@
         <v>0.44194740199999999</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>0.113783625</v>
       </c>
@@ -21047,7 +21047,7 @@
         <v>0.100382464</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>5.3595153999999999E-2</v>
       </c>
@@ -21109,7 +21109,7 @@
         <v>2.6046486000000001E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>3.8541036000000001E-2</v>
       </c>
@@ -21171,7 +21171,7 @@
         <v>0.36953712300000002</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>4.6381513999999999E-2</v>
       </c>
@@ -21233,7 +21233,7 @@
         <v>3.7616275999999997E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>5.1626625000000002E-2</v>
       </c>
@@ -21295,7 +21295,7 @@
         <v>0.100888097</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1.9762325000000001E-2</v>
       </c>
@@ -21357,7 +21357,7 @@
         <v>4.6666278999999998E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>0.14572823200000001</v>
       </c>
@@ -21419,7 +21419,7 @@
         <v>4.0364381999999997E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2.5167502000000001E-2</v>
       </c>
@@ -21481,7 +21481,7 @@
         <v>4.2833110000000001E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>4.5130706E-2</v>
       </c>
@@ -21543,7 +21543,7 @@
         <v>3.6306841999999999E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>0.162727445</v>
       </c>
@@ -21605,7 +21605,7 @@
         <v>9.4571374999999999E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>4.9708338999999997E-2</v>
       </c>
@@ -21667,7 +21667,7 @@
         <v>5.9111166999999999E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1.7089716000000001E-2</v>
       </c>
@@ -21729,7 +21729,7 @@
         <v>2.7857455E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2.2047677000000002E-2</v>
       </c>
@@ -21791,7 +21791,7 @@
         <v>5.1882656999999999E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>4.6028707000000002E-2</v>
       </c>
@@ -21853,7 +21853,7 @@
         <v>4.9781384999999997E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2.6492695E-2</v>
       </c>
@@ -21915,7 +21915,7 @@
         <v>4.5021696999999999E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2.0905933000000002E-2</v>
       </c>
@@ -21977,7 +21977,7 @@
         <v>5.8448614000000003E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>0.44194740199999999</v>
       </c>
@@ -22039,7 +22039,7 @@
         <v>7.7954860000000001E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1.3578570999999999E-2</v>
       </c>
@@ -22101,7 +22101,7 @@
         <v>6.7162059999999997E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>6.0161913999999997E-2</v>
       </c>
@@ -22163,7 +22163,7 @@
         <v>5.3595153999999999E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>3.6306841999999999E-2</v>
       </c>
@@ -22225,7 +22225,7 @@
         <v>1.447068E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2.6046486000000001E-2</v>
       </c>
@@ -22287,7 +22287,7 @@
         <v>4.0583280999999999E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>4.3024924999999999E-2</v>
       </c>
@@ -22349,7 +22349,7 @@
         <v>2.2636443999999999E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1.3474306E-2</v>
       </c>
@@ -22411,7 +22411,7 @@
         <v>8.2546647000000001E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>3.0716400000000001E-2</v>
       </c>
@@ -22473,7 +22473,7 @@
         <v>0.113783625</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>6.7162059999999997E-3</v>
       </c>
@@ -22535,7 +22535,7 @@
         <v>1.9842377000000001E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>0.100382464</v>
       </c>
@@ -22597,7 +22597,7 @@
         <v>5.0698122999999998E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>9.2916445E-2</v>
       </c>
@@ -22659,7 +22659,7 @@
         <v>2.5167502000000001E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>4.0583280999999999E-2</v>
       </c>
@@ -22721,7 +22721,7 @@
         <v>6.0230300000000001E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>9.6814064000000005E-2</v>
       </c>
@@ -22783,7 +22783,7 @@
         <v>1.2592287000000001E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>2.4718865E-2</v>
       </c>
@@ -22845,7 +22845,7 @@
         <v>2.0502195000000001E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1.447068E-2</v>
       </c>
@@ -22907,7 +22907,7 @@
         <v>5.8864844E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>9.6456030999999998E-2</v>
       </c>
@@ -22969,7 +22969,7 @@
         <v>6.0742915000000001E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>2.6884880999999999E-2</v>
       </c>
@@ -23031,7 +23031,7 @@
         <v>6.7408056999999993E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>0.164703092</v>
       </c>
@@ -23093,7 +23093,7 @@
         <v>1.8439825E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>4.6666278999999998E-2</v>
       </c>
@@ -23155,7 +23155,7 @@
         <v>5.4215592999999999E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>3.2807658000000003E-2</v>
       </c>
@@ -23217,7 +23217,7 @@
         <v>6.2454943999999998E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>3.4848173000000003E-2</v>
       </c>
@@ -23279,7 +23279,7 @@
         <v>6.2130701000000003E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>9.4863460999999996E-2</v>
       </c>
@@ -23341,7 +23341,7 @@
         <v>2.7157429E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>9.7904710000000006E-2</v>
       </c>
@@ -23403,7 +23403,7 @@
         <v>7.4139502999999995E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>0.51892226500000005</v>
       </c>
@@ -23465,7 +23465,7 @@
         <v>8.8432382000000004E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>8.1390399000000002E-2</v>
       </c>
@@ -23527,7 +23527,7 @@
         <v>7.9922772000000003E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>0.21039877700000001</v>
       </c>
@@ -23589,7 +23589,7 @@
         <v>5.0218818999999998E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>5.0593820999999997E-2</v>
       </c>
@@ -23651,7 +23651,7 @@
         <v>6.8004685999999995E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>4.1448677000000003E-2</v>
       </c>
@@ -23713,7 +23713,7 @@
         <v>7.0230405999999995E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>5.2264764999999998E-2</v>
       </c>
@@ -23788,9 +23788,9 @@
       <selection sqref="A1:T75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>0.175896996</v>
       </c>
@@ -23852,7 +23852,7 @@
         <v>0.21059807</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.155776894</v>
       </c>
@@ -23914,7 +23914,7 @@
         <v>0.26637532000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.35921549899999999</v>
       </c>
@@ -23976,7 +23976,7 @@
         <v>0.44039466900000002</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.14494206400000001</v>
       </c>
@@ -24038,7 +24038,7 @@
         <v>0.37530787799999998</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.190337696</v>
       </c>
@@ -24100,7 +24100,7 @@
         <v>0.14479620300000001</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.408047031</v>
       </c>
@@ -24162,7 +24162,7 @@
         <v>0.26752946</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.28880312899999999</v>
       </c>
@@ -24224,7 +24224,7 @@
         <v>0.14494206400000001</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.100395662</v>
       </c>
@@ -24286,7 +24286,7 @@
         <v>0.21819961199999999</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.12622139199999999</v>
       </c>
@@ -24348,7 +24348,7 @@
         <v>0.28880312899999999</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.28022531499999997</v>
       </c>
@@ -24410,7 +24410,7 @@
         <v>0.28022531499999997</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0.19942749300000001</v>
       </c>
@@ -24472,7 +24472,7 @@
         <v>0.17768133999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0.34780313200000001</v>
       </c>
@@ -24534,7 +24534,7 @@
         <v>0.25307043600000001</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0.166676519</v>
       </c>
@@ -24596,7 +24596,7 @@
         <v>0.34780313200000001</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0.16741430900000001</v>
       </c>
@@ -24658,7 +24658,7 @@
         <v>0.155776894</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0.33806254400000002</v>
       </c>
@@ -24720,7 +24720,7 @@
         <v>0.33806254400000002</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0.20441200100000001</v>
       </c>
@@ -24782,7 +24782,7 @@
         <v>0.178155068</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0.18280877000000001</v>
       </c>
@@ -24844,7 +24844,7 @@
         <v>0.22198459600000001</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0.19066982599999999</v>
       </c>
@@ -24906,7 +24906,7 @@
         <v>0.464901546</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0.520782941</v>
       </c>
@@ -24968,7 +24968,7 @@
         <v>0.34979762800000003</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>0.25307043600000001</v>
       </c>
@@ -25030,7 +25030,7 @@
         <v>0.240752194</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0.363048592</v>
       </c>
@@ -25092,7 +25092,7 @@
         <v>0.27448919500000002</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>0.21466198</v>
       </c>
@@ -25154,7 +25154,7 @@
         <v>0.33101882199999999</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>0.22198459600000001</v>
       </c>
@@ -25216,7 +25216,7 @@
         <v>0.377175977</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0.147278089</v>
       </c>
@@ -25278,7 +25278,7 @@
         <v>0.40242810099999998</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>0.29301088400000003</v>
       </c>
@@ -25340,7 +25340,7 @@
         <v>0.24193589800000001</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>0.326441494</v>
       </c>
@@ -25402,7 +25402,7 @@
         <v>0.343090175</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>0.37119660300000001</v>
       </c>
@@ -25464,7 +25464,7 @@
         <v>0.38220056499999999</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>0.15333749199999999</v>
       </c>
@@ -25526,7 +25526,7 @@
         <v>0.37119660300000001</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>0.3282311</v>
       </c>
@@ -25588,7 +25588,7 @@
         <v>0.439265984</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>0.27448919500000002</v>
       </c>
@@ -25650,7 +25650,7 @@
         <v>0.35120707800000001</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>0.42144301200000001</v>
       </c>
@@ -25712,7 +25712,7 @@
         <v>0.379730342</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>0.59834173000000002</v>
       </c>
@@ -25774,7 +25774,7 @@
         <v>0.38314198599999999</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>0.52365929</v>
       </c>
@@ -25836,7 +25836,7 @@
         <v>0.44572176800000002</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>0.35921257499999998</v>
       </c>
@@ -25898,7 +25898,7 @@
         <v>0.573036824</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>0.36771786899999997</v>
       </c>
@@ -25960,7 +25960,7 @@
         <v>0.36061420900000002</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>0.32591447899999998</v>
       </c>
@@ -26022,7 +26022,7 @@
         <v>0.48443481799999999</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>0.225552052</v>
       </c>
@@ -26084,7 +26084,7 @@
         <v>0.27574710800000002</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>0.52747980000000005</v>
       </c>
@@ -26146,7 +26146,7 @@
         <v>0.33920414599999998</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>0.63092668500000004</v>
       </c>
@@ -26208,7 +26208,7 @@
         <v>0.450422716</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>0.63570113100000003</v>
       </c>
@@ -26270,7 +26270,7 @@
         <v>0.45246466200000002</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>0.240752194</v>
       </c>
@@ -26332,7 +26332,7 @@
         <v>0.15333749199999999</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>0.31232306799999998</v>
       </c>
@@ -26394,7 +26394,7 @@
         <v>0.53145432199999998</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>0.32521397400000002</v>
       </c>
@@ -26456,7 +26456,7 @@
         <v>0.42463045300000002</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>0.75518658400000005</v>
       </c>
@@ -26518,7 +26518,7 @@
         <v>0.37865549799999998</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>0.33101882199999999</v>
       </c>
@@ -26580,7 +26580,7 @@
         <v>0.40321922199999999</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>0.25557034200000001</v>
       </c>
@@ -26642,7 +26642,7 @@
         <v>0.33320304499999998</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>0.35120707800000001</v>
       </c>
@@ -26704,7 +26704,7 @@
         <v>0.24914534799999999</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>0.52978282799999998</v>
       </c>
@@ -26766,7 +26766,7 @@
         <v>0.29701885500000003</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>0.343090175</v>
       </c>
@@ -26828,7 +26828,7 @@
         <v>0.59834173000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>0.450422716</v>
       </c>
@@ -26890,7 +26890,7 @@
         <v>0.27859405199999998</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>0.38314198599999999</v>
       </c>
@@ -26952,7 +26952,7 @@
         <v>0.46101865600000003</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>0.31485127400000001</v>
       </c>
@@ -27014,7 +27014,7 @@
         <v>0.33319339999999997</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>0.40983402800000002</v>
       </c>
@@ -27076,7 +27076,7 @@
         <v>0.56235376299999995</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>0.470477164</v>
       </c>
@@ -27138,7 +27138,7 @@
         <v>0.42144301200000001</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>0.29701885500000003</v>
       </c>
@@ -27200,7 +27200,7 @@
         <v>0.3205827</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>0.379730342</v>
       </c>
@@ -27262,7 +27262,7 @@
         <v>0.35793763499999998</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>0.35753076499999997</v>
       </c>
@@ -27324,7 +27324,7 @@
         <v>0.52747980000000005</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>0.46101865600000003</v>
       </c>
@@ -27386,7 +27386,7 @@
         <v>0.24217824499999999</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>0.43906848799999998</v>
       </c>
@@ -27448,7 +27448,7 @@
         <v>0.38251564599999999</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>0.43616191999999998</v>
       </c>
@@ -27510,7 +27510,7 @@
         <v>0.36669624899999997</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>0.27859405199999998</v>
       </c>
@@ -27572,7 +27572,7 @@
         <v>0.37524629900000001</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>0.282534695</v>
       </c>
@@ -27634,7 +27634,7 @@
         <v>0.46329938900000001</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>0.28731679900000001</v>
       </c>
@@ -27696,7 +27696,7 @@
         <v>0.217042762</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>0.498724526</v>
       </c>
@@ -27758,7 +27758,7 @@
         <v>0.310484539</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>0.48443481799999999</v>
       </c>
@@ -27820,7 +27820,7 @@
         <v>0.29170716800000002</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>0.50914963599999996</v>
       </c>
@@ -27882,7 +27882,7 @@
         <v>0.35367133299999998</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>0.28014566299999999</v>
       </c>
@@ -27944,7 +27944,7 @@
         <v>0.31430416799999999</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>0.33223775100000003</v>
       </c>
@@ -28006,7 +28006,7 @@
         <v>0.42292517099999999</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>0.51350527599999995</v>
       </c>
@@ -28068,7 +28068,7 @@
         <v>0.44260440299999998</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>0.277104662</v>
       </c>
@@ -28130,7 +28130,7 @@
         <v>0.27324521200000002</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>0.36851762599999999</v>
       </c>
@@ -28192,7 +28192,7 @@
         <v>0.36461348300000002</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>0.35421574300000003</v>
       </c>
@@ -28254,7 +28254,7 @@
         <v>0.31971983999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>0.32872526600000002</v>
       </c>
@@ -28316,7 +28316,7 @@
         <v>0.40299706400000002</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>0.404716874</v>
       </c>
@@ -28378,7 +28378,7 @@
         <v>0.327795526</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>0.39542306500000002</v>
       </c>
@@ -28453,9 +28453,9 @@
       <selection sqref="A1:T75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>2.4559451E-2</v>
       </c>
@@ -28517,7 +28517,7 @@
         <v>7.9210470000000005E-3</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>4.2738099000000002E-2</v>
       </c>
@@ -28579,7 +28579,7 @@
         <v>1.064225E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2.33534E-4</v>
       </c>
@@ -28641,7 +28641,7 @@
         <v>6.4473800000000006E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>7.5775316999999995E-2</v>
       </c>
@@ -28703,7 +28703,7 @@
         <v>1.138996E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1.0663356000000001E-2</v>
       </c>
@@ -28765,7 +28765,7 @@
         <v>0.13217947399999999</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3.9057799999999999E-4</v>
       </c>
@@ -28827,7 +28827,7 @@
         <v>2.0278150000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2.7028429999999999E-3</v>
       </c>
@@ -28889,7 +28889,7 @@
         <v>7.5775316999999995E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4.5131670000000002E-3</v>
       </c>
@@ -28951,7 +28951,7 @@
         <v>1.9468038999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.15407457399999999</v>
       </c>
@@ -29013,7 +29013,7 @@
         <v>2.7028429999999999E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5.1471370000000004E-3</v>
       </c>
@@ -29075,7 +29075,7 @@
         <v>5.1471370000000004E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2.0766511000000001E-2</v>
       </c>
@@ -29137,7 +29137,7 @@
         <v>8.287862E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2.19633E-4</v>
       </c>
@@ -29199,7 +29199,7 @@
         <v>4.7087265000000003E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1.8652164999999998E-2</v>
       </c>
@@ -29261,7 +29261,7 @@
         <v>2.19633E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3.9928997000000001E-2</v>
       </c>
@@ -29323,7 +29323,7 @@
         <v>4.2738099000000002E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>5.6661189999999998E-3</v>
       </c>
@@ -29385,7 +29385,7 @@
         <v>5.6661189999999998E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2.6347417000000001E-2</v>
       </c>
@@ -29447,7 +29447,7 @@
         <v>2.0962047000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1.7652989000000001E-2</v>
       </c>
@@ -29509,7 +29509,7 @@
         <v>4.8588986000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>3.8561118999999998E-2</v>
       </c>
@@ -29571,7 +29571,7 @@
         <v>5.9545699999999997E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1.23196E-4</v>
       </c>
@@ -29633,7 +29633,7 @@
         <v>9.4630500000000001E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>4.7087265000000003E-2</v>
       </c>
@@ -29695,7 +29695,7 @@
         <v>1.8325426999999998E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1.8388460999999998E-2</v>
       </c>
@@ -29757,7 +29757,7 @@
         <v>4.9941129999999997E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>3.7255300000000002E-4</v>
       </c>
@@ -29819,7 +29819,7 @@
         <v>3.5655410000000002E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>4.8588986000000001E-2</v>
       </c>
@@ -29881,7 +29881,7 @@
         <v>2.3848039999999999E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1.1354744999999999E-2</v>
       </c>
@@ -29943,7 +29943,7 @@
         <v>2.7157840000000002E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>5.3579049999999996E-3</v>
       </c>
@@ -30005,7 +30005,7 @@
         <v>1.2607184E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1.3792950999999999E-2</v>
       </c>
@@ -30067,7 +30067,7 @@
         <v>2.1036181000000001E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>8.0820670000000001E-3</v>
       </c>
@@ -30129,7 +30129,7 @@
         <v>6.522379E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>5.2178624E-2</v>
       </c>
@@ -30191,7 +30191,7 @@
         <v>8.0820670000000001E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2.583012E-3</v>
       </c>
@@ -30253,7 +30253,7 @@
         <v>9.5869709999999997E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>4.9941129999999997E-3</v>
       </c>
@@ -30315,7 +30315,7 @@
         <v>1.788169E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2.942741E-3</v>
       </c>
@@ -30377,7 +30377,7 @@
         <v>1.0698222E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>5.4553800000000003E-4</v>
       </c>
@@ -30439,7 +30439,7 @@
         <v>3.9399960000000003E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>5.6907490000000002E-3</v>
       </c>
@@ -30501,7 +30501,7 @@
         <v>9.2514300000000002E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>6.7909479999999998E-3</v>
       </c>
@@ -30563,7 +30563,7 @@
         <v>2.5482800000000002E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1.6596366000000001E-2</v>
       </c>
@@ -30625,7 +30625,7 @@
         <v>1.2556629E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>4.918899E-3</v>
       </c>
@@ -30687,7 +30687,7 @@
         <v>2.1692180000000001E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1.627402E-3</v>
       </c>
@@ -30749,7 +30749,7 @@
         <v>1.4595151000000001E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>7.5971700000000003E-4</v>
       </c>
@@ -30811,7 +30811,7 @@
         <v>4.7884249999999998E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2.7361300000000002E-4</v>
       </c>
@@ -30873,7 +30873,7 @@
         <v>2.0961199999999999E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>7.4949049999999996E-3</v>
       </c>
@@ -30935,7 +30935,7 @@
         <v>1.1132200000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1.8325426999999998E-2</v>
       </c>
@@ -30997,7 +30997,7 @@
         <v>5.2178624E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>8.7170379999999999E-3</v>
       </c>
@@ -31059,7 +31059,7 @@
         <v>4.5797999999999998E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1.4600025000000001E-2</v>
       </c>
@@ -31121,7 +31121,7 @@
         <v>3.7990229999999999E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2.2054999999999999E-4</v>
       </c>
@@ -31183,7 +31183,7 @@
         <v>8.924721E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>3.5655410000000002E-3</v>
       </c>
@@ -31245,7 +31245,7 @@
         <v>8.4610290000000001E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1.2460456E-2</v>
       </c>
@@ -31307,7 +31307,7 @@
         <v>1.1846756E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1.788169E-3</v>
       </c>
@@ -31369,7 +31369,7 @@
         <v>4.0702496999999997E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2.5697399999999998E-4</v>
       </c>
@@ -31431,7 +31431,7 @@
         <v>7.1073700000000002E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2.1036181000000001E-2</v>
       </c>
@@ -31493,7 +31493,7 @@
         <v>5.4553800000000003E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2.0961199999999999E-3</v>
       </c>
@@ -31555,7 +31555,7 @@
         <v>1.0569487000000001E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>3.9399960000000003E-3</v>
       </c>
@@ -31617,7 +31617,7 @@
         <v>1.683405E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>7.5173879999999998E-3</v>
       </c>
@@ -31679,7 +31679,7 @@
         <v>1.3207178E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1.1679839999999999E-3</v>
       </c>
@@ -31741,7 +31741,7 @@
         <v>8.7492830000000001E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>5.8497900000000001E-4</v>
       </c>
@@ -31803,7 +31803,7 @@
         <v>2.942741E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>7.1073700000000002E-4</v>
       </c>
@@ -31865,7 +31865,7 @@
         <v>5.5151979999999998E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1.0698222E-2</v>
       </c>
@@ -31927,7 +31927,7 @@
         <v>2.4894451000000001E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>7.8561640000000005E-3</v>
       </c>
@@ -31989,7 +31989,7 @@
         <v>7.5971700000000003E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1.683405E-3</v>
       </c>
@@ -32051,7 +32051,7 @@
         <v>2.7175161999999999E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1.8641930000000001E-3</v>
       </c>
@@ -32113,7 +32113,7 @@
         <v>7.9812800000000005E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>9.2146600000000002E-4</v>
       </c>
@@ -32175,7 +32175,7 @@
         <v>3.6924079999999999E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1.0569487000000001E-2</v>
       </c>
@@ -32237,7 +32237,7 @@
         <v>1.2481684E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>2.1932065000000001E-2</v>
       </c>
@@ -32299,7 +32299,7 @@
         <v>2.1705589999999999E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1.0507010000000001E-2</v>
       </c>
@@ -32361,7 +32361,7 @@
         <v>1.6827842999999999E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>6.3368500000000004E-4</v>
       </c>
@@ -32423,7 +32423,7 @@
         <v>1.052786E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>2.1692180000000001E-3</v>
       </c>
@@ -32485,7 +32485,7 @@
         <v>1.1623644000000001E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1.141775E-3</v>
       </c>
@@ -32547,7 +32547,7 @@
         <v>9.2886389999999996E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1.7755177E-2</v>
       </c>
@@ -32609,7 +32609,7 @@
         <v>1.8859173E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>2.9866900000000002E-3</v>
       </c>
@@ -32671,7 +32671,7 @@
         <v>1.763204E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>2.9581630000000002E-3</v>
       </c>
@@ -32733,7 +32733,7 @@
         <v>1.9317379999999999E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>4.4949159999999998E-3</v>
       </c>
@@ -32795,7 +32795,7 @@
         <v>2.9676903000000001E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>9.8199810000000002E-3</v>
       </c>
@@ -32857,7 +32857,7 @@
         <v>1.2097790000000001E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1.7675E-3</v>
       </c>
@@ -32919,7 +32919,7 @@
         <v>1.2130086999999999E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>6.7482749999999998E-3</v>
       </c>
@@ -32981,7 +32981,7 @@
         <v>5.0410990000000003E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1.9888869999999999E-3</v>
       </c>
@@ -33043,7 +33043,7 @@
         <v>7.8170819999999995E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>3.9710140000000001E-3</v>
       </c>
@@ -33114,16 +33114,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE1F313D-CF93-475D-BC03-BB358E1950E1}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="76.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -33137,7 +33137,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -33151,7 +33151,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -33165,7 +33165,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -33179,7 +33179,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -33193,7 +33193,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -33207,7 +33207,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -33221,7 +33221,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -33235,7 +33235,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -33249,7 +33249,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -33263,7 +33263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -33277,7 +33277,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -33291,7 +33291,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -33305,7 +33305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -33319,7 +33319,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -33333,7 +33333,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -33347,7 +33347,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -33361,7 +33361,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -33375,7 +33375,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -33389,7 +33389,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -33403,7 +33403,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -33430,9 +33430,9 @@
       <selection sqref="A1:BH1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -33494,7 +33494,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -33676,7 +33676,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>62</v>
       </c>
@@ -33858,7 +33858,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>59</v>
       </c>
@@ -34040,7 +34040,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="5" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>39</v>
       </c>
@@ -34222,7 +34222,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>63</v>
       </c>
@@ -34404,7 +34404,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>67</v>
       </c>
@@ -34586,7 +34586,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>50</v>
       </c>
@@ -34768,7 +34768,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>43</v>
       </c>
@@ -34950,7 +34950,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="10" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>13</v>
       </c>
@@ -35132,7 +35132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>72</v>
       </c>
@@ -35314,7 +35314,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="12" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>8</v>
       </c>
@@ -35496,7 +35496,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>55</v>
       </c>
@@ -35678,7 +35678,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="14" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>42</v>
       </c>
@@ -35860,7 +35860,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>23</v>
       </c>
@@ -36042,7 +36042,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="16" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>5</v>
       </c>
@@ -36224,7 +36224,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="17" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>52</v>
       </c>
@@ -36406,7 +36406,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="18" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>58</v>
       </c>
@@ -36588,7 +36588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>4</v>
       </c>
@@ -36770,7 +36770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>12</v>
       </c>
@@ -36952,7 +36952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>30</v>
       </c>
@@ -37134,7 +37134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>71</v>
       </c>
@@ -37316,7 +37316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>69</v>
       </c>
@@ -37498,7 +37498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>35</v>
       </c>
@@ -37680,7 +37680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>73</v>
       </c>
@@ -37862,7 +37862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>7</v>
       </c>
@@ -38044,7 +38044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>9</v>
       </c>
@@ -38226,7 +38226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>68</v>
       </c>
@@ -38408,7 +38408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>0</v>
       </c>
@@ -38590,7 +38590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>0</v>
       </c>
@@ -38772,7 +38772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>0</v>
       </c>
@@ -38954,7 +38954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>0</v>
       </c>
@@ -39136,7 +39136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>0</v>
       </c>
@@ -39318,7 +39318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>0</v>
       </c>
@@ -39500,7 +39500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>0</v>
       </c>
@@ -39682,7 +39682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>0</v>
       </c>
@@ -39864,7 +39864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>0</v>
       </c>
@@ -40046,7 +40046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>0</v>
       </c>
@@ -40228,7 +40228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>0</v>
       </c>
@@ -40410,7 +40410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>0</v>
       </c>
@@ -40592,7 +40592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>0</v>
       </c>
@@ -40774,7 +40774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>0</v>
       </c>
@@ -40956,7 +40956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>0</v>
       </c>
@@ -41138,7 +41138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>0</v>
       </c>
@@ -41320,7 +41320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>0</v>
       </c>
@@ -41502,7 +41502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>0</v>
       </c>
@@ -41684,7 +41684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>0</v>
       </c>
@@ -41866,7 +41866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>0</v>
       </c>
@@ -42048,7 +42048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>0</v>
       </c>
@@ -42230,7 +42230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>0</v>
       </c>
@@ -42412,7 +42412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>0</v>
       </c>
@@ -42594,7 +42594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>0</v>
       </c>
@@ -42776,7 +42776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>0</v>
       </c>
@@ -42958,7 +42958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>0</v>
       </c>
@@ -43140,7 +43140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>0</v>
       </c>
@@ -43322,7 +43322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>0</v>
       </c>
@@ -43504,7 +43504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>0</v>
       </c>
@@ -43686,7 +43686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>0</v>
       </c>
@@ -43868,7 +43868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>0</v>
       </c>
@@ -44050,7 +44050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>0</v>
       </c>
@@ -44232,7 +44232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>0</v>
       </c>
@@ -44414,7 +44414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>0</v>
       </c>
@@ -44596,7 +44596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>0</v>
       </c>
@@ -44778,7 +44778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>0</v>
       </c>
@@ -44960,7 +44960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>0</v>
       </c>
@@ -45142,7 +45142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>0</v>
       </c>
@@ -45324,7 +45324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>0</v>
       </c>
@@ -45506,7 +45506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>0</v>
       </c>
@@ -45688,7 +45688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>0</v>
       </c>
@@ -45870,7 +45870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>0</v>
       </c>
@@ -46052,7 +46052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>0</v>
       </c>
@@ -46234,7 +46234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>0</v>
       </c>
@@ -46416,7 +46416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>0</v>
       </c>
@@ -46598,7 +46598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>0</v>
       </c>
@@ -46780,7 +46780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>0</v>
       </c>
@@ -46962,7 +46962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>0</v>
       </c>
